--- a/Feast data/DNDC_in_Nov7.xlsx
+++ b/Feast data/DNDC_in_Nov7.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\go29gaj\Documents\Github\DNDC Modelling\Feast data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0EB6C1-06A0-489B-B9B8-56147A81EE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89049B5-7BFD-4060-B98E-A4B248664E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" tabRatio="601" xr2:uid="{883A2D82-BC89-4C73-8F2D-52BCDA082F90}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" tabRatio="601" activeTab="1" xr2:uid="{883A2D82-BC89-4C73-8F2D-52BCDA082F90}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="8" r:id="rId1"/>
-    <sheet name="SA" sheetId="7" r:id="rId2"/>
-    <sheet name="SH" sheetId="6" r:id="rId3"/>
-    <sheet name="THH" sheetId="5" r:id="rId4"/>
-    <sheet name="THSH" sheetId="1" r:id="rId5"/>
+    <sheet name="Yield_increments" sheetId="9" r:id="rId2"/>
+    <sheet name="SA" sheetId="7" r:id="rId3"/>
+    <sheet name="SH" sheetId="6" r:id="rId4"/>
+    <sheet name="THH" sheetId="5" r:id="rId5"/>
+    <sheet name="THSH" sheetId="1" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="93">
   <si>
     <t>Cow</t>
   </si>
@@ -254,6 +256,72 @@
   </si>
   <si>
     <t>N recovery efficiency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maize yield gain </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhodes yield gain </t>
+  </si>
+  <si>
+    <t>Semi-arid</t>
+  </si>
+  <si>
+    <t>Sub-humid</t>
+  </si>
+  <si>
+    <t>Tropical highland sub-humid</t>
+  </si>
+  <si>
+    <t>Tropical highland humid</t>
+  </si>
+  <si>
+    <t>Fraction system</t>
+  </si>
+  <si>
+    <t>Base yield</t>
+  </si>
+  <si>
+    <t>Intensified yield</t>
+  </si>
+  <si>
+    <t>Relative increase as % DM</t>
+  </si>
+  <si>
+    <t>Base Maize yield -- Semi arid</t>
+  </si>
+  <si>
+    <t>Base Maize yield -- Sub-humid</t>
+  </si>
+  <si>
+    <t>Base Maize yield -- Tropical highland humid</t>
+  </si>
+  <si>
+    <t>Base Maize yield -- Tropical highland sub-humid</t>
+  </si>
+  <si>
+    <t>Baseline</t>
+  </si>
+  <si>
+    <t>Intensified</t>
+  </si>
+  <si>
+    <t>Fractional gain</t>
+  </si>
+  <si>
+    <t>Base Rhodes yield -- Semi arid</t>
+  </si>
+  <si>
+    <t>Base Rhodes yield -- Sub-humid</t>
+  </si>
+  <si>
+    <t>Base Rhodes yield -- Tropical highland humid</t>
+  </si>
+  <si>
+    <t>Base Rhodes yield -- Tropical highland sub-humid</t>
+  </si>
+  <si>
+    <t>All yield values in Mg/ha/yr</t>
   </si>
 </sst>
 </file>
@@ -263,7 +331,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -311,12 +379,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -331,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="6"/>
@@ -348,13 +428,25 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -373,6 +465,50 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Info"/>
+      <sheetName val="FEAST_DMI_Data"/>
+      <sheetName val="Sarid"/>
+      <sheetName val="THSH"/>
+      <sheetName val="SH"/>
+      <sheetName val="THH"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="C2">
+            <v>2211</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="C3">
+            <v>1238</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>1720</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5">
+            <v>2160</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -702,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13FADA7-9457-4EA6-A356-4357D0AB3C16}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -718,14 +854,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.5">
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="8" t="s">
@@ -1168,11 +1304,324 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C383F0-0E8C-436A-B48E-1FA08ECF41F4}">
+  <dimension ref="A1:P18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="19.26953125" customWidth="1"/>
+    <col min="2" max="2" width="18.6328125" customWidth="1"/>
+    <col min="3" max="3" width="44.453125" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" customWidth="1"/>
+    <col min="5" max="5" width="18.81640625" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" customWidth="1"/>
+    <col min="8" max="8" width="13.453125" customWidth="1"/>
+    <col min="9" max="9" width="10.08984375" customWidth="1"/>
+    <col min="10" max="10" width="13.90625" customWidth="1"/>
+    <col min="11" max="11" width="13.6328125" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="17" customWidth="1"/>
+    <col min="14" max="14" width="13.81640625" customWidth="1"/>
+    <col min="15" max="15" width="13.90625" customWidth="1"/>
+    <col min="16" max="16" width="12.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="C1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="D2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3">
+        <v>0.15</v>
+      </c>
+      <c r="D3">
+        <v>0.06</v>
+      </c>
+      <c r="E3" s="11">
+        <f>D11</f>
+        <v>1.238</v>
+      </c>
+      <c r="F3" s="14">
+        <f>E3*(C3+D3)/D3</f>
+        <v>4.3330000000000002</v>
+      </c>
+      <c r="H3">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="I3" s="11">
+        <f>D12</f>
+        <v>1.72</v>
+      </c>
+      <c r="J3" s="13">
+        <f>I3*(C3+H3)/H3</f>
+        <v>2.2497741273100615</v>
+      </c>
+      <c r="K3">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="L3" s="11">
+        <f>D13</f>
+        <v>2.2109999999999999</v>
+      </c>
+      <c r="M3" s="13">
+        <f>L3*(C3+K3)/K3</f>
+        <v>3.0506202531645568</v>
+      </c>
+      <c r="N3">
+        <v>0.17</v>
+      </c>
+      <c r="O3" s="11">
+        <f>D14</f>
+        <v>2.16</v>
+      </c>
+      <c r="P3" s="13">
+        <f>O3*(C3+N3)/N3</f>
+        <v>4.0658823529411761</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4">
+        <v>0.15</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="11">
+        <f>D7</f>
+        <v>10.6</v>
+      </c>
+      <c r="F4" s="14" t="e">
+        <f>E4*(C4+D4)/D4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H4">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="I4" s="11">
+        <f>D8</f>
+        <v>10.6</v>
+      </c>
+      <c r="J4" s="13">
+        <f>I4*(C4+H4)/H4</f>
+        <v>29.305882352941172</v>
+      </c>
+      <c r="K4">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="L4" s="11">
+        <f>D9</f>
+        <v>10.6</v>
+      </c>
+      <c r="M4" s="13">
+        <f>L4*(C4+K4)/K4</f>
+        <v>27.336842105263159</v>
+      </c>
+      <c r="N4">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="O4" s="11">
+        <f>D10</f>
+        <v>10.6</v>
+      </c>
+      <c r="P4" s="13">
+        <f>O4*(C4+N4)/N4</f>
+        <v>22.121739130434783</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="D6" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="3">
+        <v>10.6</v>
+      </c>
+      <c r="E7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="3">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="3">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="C10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="3">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="3">
+        <f>[1]FEAST_DMI_Data!$C$3/1000</f>
+        <v>1.238</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="3">
+        <f>[1]FEAST_DMI_Data!$C$4/1000</f>
+        <v>1.72</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="C13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="3">
+        <f>[1]FEAST_DMI_Data!$C$2/1000</f>
+        <v>2.2109999999999999</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="C14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="3">
+        <f>[1]FEAST_DMI_Data!$C$5/1000</f>
+        <v>2.16</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75DB5EB5-5AF2-41F5-92DB-FD4BD9571043}">
   <dimension ref="A1:X52"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1188,30 +1637,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11" t="s">
+      <c r="D1" s="18"/>
+      <c r="E1" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11" t="s">
+      <c r="F1" s="18"/>
+      <c r="G1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11" t="s">
+      <c r="H1" s="18"/>
+      <c r="I1" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11" t="s">
+      <c r="J1" s="18"/>
+      <c r="K1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11" t="s">
+      <c r="L1" s="18"/>
+      <c r="M1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="11"/>
+      <c r="N1" s="18"/>
       <c r="P1" t="s">
         <v>63</v>
       </c>
@@ -1746,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <f>T13/T$16+[1]Land.footprint!$J$2</f>
+        <f>T13/T$16+[2]Land.footprint!$J$2</f>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="U10">
@@ -1826,7 +2275,7 @@
         <v>0.98</v>
       </c>
       <c r="T11">
-        <f>T14/T$16+[1]Land.footprint!$J$1</f>
+        <f>T14/T$16+[2]Land.footprint!$J$1</f>
         <v>0.83</v>
       </c>
       <c r="U11">
@@ -1834,7 +2283,7 @@
         <v>0.98</v>
       </c>
       <c r="V11">
-        <f>V14/V$16+[1]Land.footprint!$J$1</f>
+        <f>V14/V$16+[2]Land.footprint!$J$1</f>
         <v>0.52999999999999992</v>
       </c>
       <c r="W11">
@@ -1914,7 +2363,7 @@
         <v>0.02</v>
       </c>
       <c r="V12">
-        <f>V15/V$16+[1]Land.footprint!$J$3</f>
+        <f>V15/V$16+[2]Land.footprint!$J$3</f>
         <v>0.47</v>
       </c>
       <c r="W12">
@@ -2054,15 +2503,15 @@
         <v>0.49</v>
       </c>
       <c r="V14" s="4">
-        <f>$S14+[1]Land.footprint!$J$1</f>
+        <f>$S14+[2]Land.footprint!$J$1</f>
         <v>0.33999999999999997</v>
       </c>
       <c r="W14" s="4">
-        <f>$S14*(1+[1]Land.footprint!$J$1)</f>
+        <f>$S14*(1+[2]Land.footprint!$J$1)</f>
         <v>0.41649999999999998</v>
       </c>
       <c r="X14" s="4">
-        <f>$S14*(1+[1]Land.footprint!$J$1)</f>
+        <f>$S14*(1+[2]Land.footprint!$J$1)</f>
         <v>0.41649999999999998</v>
       </c>
     </row>
@@ -2115,7 +2564,7 @@
         <v>0.01</v>
       </c>
       <c r="V15" s="4">
-        <f>$S15+[1]Land.footprint!$J$3</f>
+        <f>$S15+[2]Land.footprint!$J$3</f>
         <v>0.16</v>
       </c>
       <c r="W15" s="4">
@@ -2461,7 +2910,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8D96AD-44EA-439D-A507-2743A6E031FA}">
   <dimension ref="A1:X52"/>
   <sheetViews>
@@ -2481,30 +2930,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11" t="s">
+      <c r="D1" s="18"/>
+      <c r="E1" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11" t="s">
+      <c r="F1" s="18"/>
+      <c r="G1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11" t="s">
+      <c r="H1" s="18"/>
+      <c r="I1" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11" t="s">
+      <c r="J1" s="18"/>
+      <c r="K1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11" t="s">
+      <c r="L1" s="18"/>
+      <c r="M1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="11"/>
+      <c r="N1" s="18"/>
       <c r="P1" t="s">
         <v>63</v>
       </c>
@@ -3032,27 +3481,27 @@
         <f>SA!R10</f>
         <v>FRAC_maize</v>
       </c>
-      <c r="S10" s="12">
+      <c r="S10" s="10">
         <f>S13/S$16</f>
         <v>1.8494605704910735E-2</v>
       </c>
-      <c r="T10" s="12">
-        <f>T13/T$16+[1]Land.footprint!$J$2</f>
+      <c r="T10" s="10">
+        <f>T13/T$16+[2]Land.footprint!$J$2</f>
         <v>9.3494605704910735E-2</v>
       </c>
-      <c r="U10" s="12">
+      <c r="U10" s="10">
         <f>U13/U$16</f>
         <v>2.1084669290306186E-2</v>
       </c>
-      <c r="V10" s="12">
+      <c r="V10" s="10">
         <f t="shared" ref="T10:X12" si="13">V13/V$16</f>
         <v>1.8494605704910735E-2</v>
       </c>
-      <c r="W10" s="12">
+      <c r="W10" s="10">
         <f t="shared" si="13"/>
         <v>2.1084669290306186E-2</v>
       </c>
-      <c r="X10" s="12">
+      <c r="X10" s="10">
         <f t="shared" si="13"/>
         <v>2.4518319484606286E-2</v>
       </c>
@@ -3116,27 +3565,27 @@
         <f>SA!R11</f>
         <v>FRAC_native_grass</v>
       </c>
-      <c r="S11" s="12">
+      <c r="S11" s="10">
         <f t="shared" ref="S11" si="14">S14/S$16</f>
         <v>0.8189405454531673</v>
       </c>
-      <c r="T11" s="12">
-        <f>T14/T$16+[1]Land.footprint!$J$1</f>
+      <c r="T11" s="10">
+        <f>T14/T$16+[2]Land.footprint!$J$1</f>
         <v>0.66894054545316728</v>
       </c>
-      <c r="U11" s="12">
-        <f>U14/U$16+[1]Land.footprint!$J$1</f>
+      <c r="U11" s="10">
+        <f>U14/U$16+[2]Land.footprint!$J$1</f>
         <v>0.64358420601583632</v>
       </c>
-      <c r="V11" s="12">
-        <f>V14/V$16+[1]Land.footprint!$J$1</f>
+      <c r="V11" s="10">
+        <f>V14/V$16+[2]Land.footprint!$J$1</f>
         <v>0.66894054545316728</v>
       </c>
-      <c r="W11" s="12">
-        <f>W14/W$16+[1]Land.footprint!$J$1</f>
+      <c r="W11" s="10">
+        <f>W14/W$16+[2]Land.footprint!$J$1</f>
         <v>0.64358420601583632</v>
       </c>
-      <c r="X11" s="12">
+      <c r="X11" s="10">
         <f t="shared" si="13"/>
         <v>0.75996927844160167</v>
       </c>
@@ -3200,27 +3649,27 @@
         <f>SA!R12</f>
         <v>FRAC_rhodes</v>
       </c>
-      <c r="S12" s="12">
+      <c r="S12" s="10">
         <f>S15/S$16</f>
         <v>0.16256484884192196</v>
       </c>
-      <c r="T12" s="12">
+      <c r="T12" s="10">
         <f t="shared" si="13"/>
         <v>0.16256484884192196</v>
       </c>
-      <c r="U12" s="12">
+      <c r="U12" s="10">
         <f t="shared" si="13"/>
         <v>0.18533112469385746</v>
       </c>
-      <c r="V12" s="12">
-        <f>V15/V$16+[1]Land.footprint!$J$3</f>
+      <c r="V12" s="10">
+        <f>V15/V$16+[2]Land.footprint!$J$3</f>
         <v>0.31256484884192193</v>
       </c>
-      <c r="W12" s="12">
+      <c r="W12" s="10">
         <f t="shared" si="13"/>
         <v>0.18533112469385746</v>
       </c>
-      <c r="X12" s="12">
+      <c r="X12" s="10">
         <f t="shared" si="13"/>
         <v>0.21551240207379205</v>
       </c>
@@ -3284,26 +3733,26 @@
         <f>SA!R13</f>
         <v>Ha_per_TLU Maize</v>
       </c>
-      <c r="S13" s="12">
+      <c r="S13" s="10">
         <v>3.6207175365601313E-3</v>
       </c>
-      <c r="T13" s="12">
+      <c r="T13" s="10">
         <f>$S13</f>
         <v>3.6207175365601313E-3</v>
       </c>
-      <c r="U13" s="12">
+      <c r="U13" s="10">
         <f>$S13</f>
         <v>3.6207175365601313E-3</v>
       </c>
-      <c r="V13" s="12">
+      <c r="V13" s="10">
         <f t="shared" ref="U13:X15" si="15">$S13</f>
         <v>3.6207175365601313E-3</v>
       </c>
-      <c r="W13" s="12">
+      <c r="W13" s="10">
         <f t="shared" si="15"/>
         <v>3.6207175365601313E-3</v>
       </c>
-      <c r="X13" s="12">
+      <c r="X13" s="10">
         <f t="shared" si="15"/>
         <v>3.6207175365601313E-3</v>
       </c>
@@ -3346,27 +3795,27 @@
         <f>SA!R14</f>
         <v>Ha_per_TLU Native grass</v>
       </c>
-      <c r="S14" s="12">
+      <c r="S14" s="10">
         <v>0.16032525600343495</v>
       </c>
-      <c r="T14" s="12">
+      <c r="T14" s="10">
         <f>$S14</f>
         <v>0.16032525600343495</v>
       </c>
-      <c r="U14" s="12">
-        <f>$S14*(1+[1]Land.footprint!$J$1)</f>
+      <c r="U14" s="10">
+        <f>$S14*(1+[2]Land.footprint!$J$1)</f>
         <v>0.1362764676029197</v>
       </c>
-      <c r="V14" s="12">
+      <c r="V14" s="10">
         <f>$S14</f>
         <v>0.16032525600343495</v>
       </c>
-      <c r="W14" s="12">
-        <f>$S14*(1+[1]Land.footprint!$J$1)</f>
+      <c r="W14" s="10">
+        <f>$S14*(1+[2]Land.footprint!$J$1)</f>
         <v>0.1362764676029197</v>
       </c>
-      <c r="X14" s="12">
-        <f>$S14*(1+[1]Land.footprint!$J$1+[1]Land.footprint!$J$1)</f>
+      <c r="X14" s="10">
+        <f>$S14*(1+[2]Land.footprint!$J$1+[2]Land.footprint!$J$1)</f>
         <v>0.11222767920240445</v>
       </c>
     </row>
@@ -3408,26 +3857,26 @@
         <f>SA!R15</f>
         <v>Ha_per_TLU Rhodes</v>
       </c>
-      <c r="S15" s="12">
+      <c r="S15" s="10">
         <v>3.1825571651625251E-2</v>
       </c>
-      <c r="T15" s="12">
+      <c r="T15" s="10">
         <f>$S15</f>
         <v>3.1825571651625251E-2</v>
       </c>
-      <c r="U15" s="12">
+      <c r="U15" s="10">
         <f t="shared" si="15"/>
         <v>3.1825571651625251E-2</v>
       </c>
-      <c r="V15" s="12">
+      <c r="V15" s="10">
         <f>$S15</f>
         <v>3.1825571651625251E-2</v>
       </c>
-      <c r="W15" s="12">
+      <c r="W15" s="10">
         <f t="shared" si="15"/>
         <v>3.1825571651625251E-2</v>
       </c>
-      <c r="X15" s="12">
+      <c r="X15" s="10">
         <f t="shared" si="15"/>
         <v>3.1825571651625251E-2</v>
       </c>
@@ -3469,27 +3918,27 @@
       <c r="R16" t="s">
         <v>43</v>
       </c>
-      <c r="S16" s="12">
+      <c r="S16" s="10">
         <f>SUM(S13:S15)</f>
         <v>0.19577154519162032</v>
       </c>
-      <c r="T16" s="12">
+      <c r="T16" s="10">
         <f t="shared" ref="T16:X16" si="22">SUM(T13:T15)</f>
         <v>0.19577154519162032</v>
       </c>
-      <c r="U16" s="12">
+      <c r="U16" s="10">
         <f>SUM(U13:U15)</f>
         <v>0.17172275679110507</v>
       </c>
-      <c r="V16" s="12">
+      <c r="V16" s="10">
         <f t="shared" si="22"/>
         <v>0.19577154519162032</v>
       </c>
-      <c r="W16" s="12">
+      <c r="W16" s="10">
         <f t="shared" si="22"/>
         <v>0.17172275679110507</v>
       </c>
-      <c r="X16" s="12">
+      <c r="X16" s="10">
         <f t="shared" si="22"/>
         <v>0.14767396839058983</v>
       </c>
@@ -3812,7 +4261,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3187F1C3-D70F-4E32-A602-1BDAAF3FCCD9}">
   <dimension ref="A1:X52"/>
   <sheetViews>
@@ -3831,30 +4280,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11" t="s">
+      <c r="D1" s="18"/>
+      <c r="E1" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11" t="s">
+      <c r="F1" s="18"/>
+      <c r="G1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11" t="s">
+      <c r="H1" s="18"/>
+      <c r="I1" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11" t="s">
+      <c r="J1" s="18"/>
+      <c r="K1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11" t="s">
+      <c r="L1" s="18"/>
+      <c r="M1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="11"/>
+      <c r="N1" s="18"/>
       <c r="P1" t="s">
         <v>63</v>
       </c>
@@ -4387,7 +4836,7 @@
         <v>0.38358884268218485</v>
       </c>
       <c r="T10">
-        <f>T13/T$16+[1]Land.footprint!$J$2</f>
+        <f>T13/T$16+[2]Land.footprint!$J$2</f>
         <v>0.45858884268218486</v>
       </c>
       <c r="U10">
@@ -4471,7 +4920,7 @@
         <v>0.51985744545550194</v>
       </c>
       <c r="T11">
-        <f>T14/T$16+[1]Land.footprint!$J$1</f>
+        <f>T14/T$16+[2]Land.footprint!$J$1</f>
         <v>0.36985744545550192</v>
       </c>
       <c r="U11">
@@ -4479,7 +4928,7 @@
         <v>0.47925008757644944</v>
       </c>
       <c r="V11">
-        <f>V14/V$16+[1]Land.footprint!$J$1</f>
+        <f>V14/V$16+[2]Land.footprint!$J$1</f>
         <v>0.36985744545550192</v>
       </c>
       <c r="W11">
@@ -4563,7 +5012,7 @@
         <v>0.10471960154452109</v>
       </c>
       <c r="V12">
-        <f>V15/V$16+[1]Land.footprint!$J$3</f>
+        <f>V15/V$16+[2]Land.footprint!$J$3</f>
         <v>0.24655371186231317</v>
       </c>
       <c r="W12">
@@ -4704,7 +5153,7 @@
         <v>0.21171430628921126</v>
       </c>
       <c r="U14" s="4">
-        <f>$S14*(1+[1]Land.footprint!$J$1)</f>
+        <f>$S14*(1+[2]Land.footprint!$J$1)</f>
         <v>0.17995716034582956</v>
       </c>
       <c r="V14" s="4">
@@ -4712,11 +5161,11 @@
         <v>0.21171430628921126</v>
       </c>
       <c r="W14" s="4">
-        <f>$S14*(1+[1]Land.footprint!$J$1)</f>
+        <f>$S14*(1+[2]Land.footprint!$J$1)</f>
         <v>0.17995716034582956</v>
       </c>
       <c r="X14" s="4">
-        <f>$S14*(1+[1]Land.footprint!$J$1+[1]Land.footprint!$J$1)</f>
+        <f>$S14*(1+[2]Land.footprint!$J$1+[2]Land.footprint!$J$1)</f>
         <v>0.14820001440244787</v>
       </c>
     </row>
@@ -5154,7 +5603,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2117CE48-2110-49AB-BC7C-6B96535D599C}">
   <dimension ref="A1:X52"/>
   <sheetViews>
@@ -5178,30 +5627,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11" t="s">
+      <c r="D1" s="18"/>
+      <c r="E1" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11" t="s">
+      <c r="F1" s="18"/>
+      <c r="G1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11" t="s">
+      <c r="H1" s="18"/>
+      <c r="I1" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11" t="s">
+      <c r="J1" s="18"/>
+      <c r="K1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11" t="s">
+      <c r="L1" s="18"/>
+      <c r="M1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="11"/>
+      <c r="N1" s="18"/>
       <c r="P1" t="s">
         <v>63</v>
       </c>
@@ -5716,7 +6165,7 @@
         <v>0.11528268761032279</v>
       </c>
       <c r="T10">
-        <f>T13/T$16+[1]Land.footprint!$J$2</f>
+        <f>T13/T$16+[2]Land.footprint!$J$2</f>
         <v>0.1902826876103228</v>
       </c>
       <c r="U10">
@@ -5800,7 +6249,7 @@
         <v>0.73772440479746859</v>
       </c>
       <c r="T11">
-        <f>T14/T$16+[1]Land.footprint!$J$1</f>
+        <f>T14/T$16+[2]Land.footprint!$J$1</f>
         <v>0.58772440479746857</v>
       </c>
       <c r="U11">
@@ -5808,7 +6257,7 @@
         <v>0.70509006652636352</v>
       </c>
       <c r="V11">
-        <f>V14/V$16+[1]Land.footprint!$J$1</f>
+        <f>V14/V$16+[2]Land.footprint!$J$1</f>
         <v>0.58772440479746857</v>
       </c>
       <c r="W11">
@@ -5892,7 +6341,7 @@
         <v>0.16528289094393117</v>
       </c>
       <c r="V12">
-        <f>V15/V$16+[1]Land.footprint!$J$3</f>
+        <f>V15/V$16+[2]Land.footprint!$J$3</f>
         <v>0.29699290759220875</v>
       </c>
       <c r="W12">
@@ -6033,7 +6482,7 @@
         <v>0.22084494888213652</v>
       </c>
       <c r="U14" s="4">
-        <f>$S14*(1+[1]Land.footprint!$J$1)</f>
+        <f>$S14*(1+[2]Land.footprint!$J$1)</f>
         <v>0.18771820654981602</v>
       </c>
       <c r="V14" s="4">
@@ -6041,11 +6490,11 @@
         <v>0.22084494888213652</v>
       </c>
       <c r="W14" s="4">
-        <f>$S14*(1+[1]Land.footprint!$J$1)</f>
+        <f>$S14*(1+[2]Land.footprint!$J$1)</f>
         <v>0.18771820654981602</v>
       </c>
       <c r="X14" s="4">
-        <f>$S14*(1+[1]Land.footprint!$J$1+[1]Land.footprint!$J$1)</f>
+        <f>$S14*(1+[2]Land.footprint!$J$1+[2]Land.footprint!$J$1)</f>
         <v>0.15459146421749556</v>
       </c>
     </row>
